--- a/Bedroom - Plaster.xlsx
+++ b/Bedroom - Plaster.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bedroom" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>Длина</t>
   </si>
@@ -73,6 +71,33 @@
   </si>
   <si>
     <t>Цена работ за м2</t>
+  </si>
+  <si>
+    <t>Спальня</t>
+  </si>
+  <si>
+    <t>Кухня</t>
+  </si>
+  <si>
+    <t>Площадь большого окна</t>
+  </si>
+  <si>
+    <t>Площадь маленького окна</t>
+  </si>
+  <si>
+    <t>Площадь двери 1</t>
+  </si>
+  <si>
+    <t>Площадь двери 2</t>
+  </si>
+  <si>
+    <t>Площадь двери 3</t>
+  </si>
+  <si>
+    <t>Коридор</t>
+  </si>
+  <si>
+    <t>Площадь двери 4</t>
   </si>
 </sst>
 </file>
@@ -97,15 +122,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,17 +159,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,33 +534,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2.61</v>
+        <v>3.86</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -488,11 +564,10 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <f>(C3+C4)*2</f>
-        <v>12.94</v>
+        <v>2.61</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -500,10 +575,11 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>2.8</v>
+        <f>(C4+C5)*2</f>
+        <v>12.94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -511,22 +587,22 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <f>C5*C6</f>
-        <v>36.231999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.367</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C6*C7</f>
+        <v>36.231999999999999</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -534,10 +610,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>1.6</v>
+        <v>3.367</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -545,11 +621,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <f>C7-C8-C9</f>
-        <v>31.265000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -557,33 +632,34 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>800</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <f>C8-C9-C10</f>
+        <v>31.265000000000001</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
-        <f>C10*C11</f>
-        <v>25012</v>
+        <v>950</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>500</v>
+        <f>C11*C12</f>
+        <v>29701.75</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -591,42 +667,366 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
-        <f>C12+C13</f>
-        <v>25512</v>
+        <v>500</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5">
+        <f>C13+C14</f>
+        <v>30201.75</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <f>(C19+C20)*2</f>
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C21*C22</f>
+        <v>61.599999999999994</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.367</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.528</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <f>C23-C24-C25-C26-C27-C28</f>
+        <v>50.704999999999998</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3">
+        <v>950</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <f>C29*C30</f>
+        <v>48169.75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5">
+        <f>C31</f>
+        <v>48169.75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.42</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <f>(C35+C36)*2</f>
+        <v>12.34</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <f>C37*C38</f>
+        <v>34.552</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4">
+        <f>C39-C40-C41-C42-C43</f>
+        <v>26.552</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3">
+        <v>950</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6">
+        <f>C44*C45</f>
+        <v>25224.399999999998</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="5">
+        <f>C46</f>
+        <v>25224.399999999998</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B34:D34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>